--- a/nmadb/481412.xlsx
+++ b/nmadb/481412.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11565"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Node">[1]Values!$A$2:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -163,16 +163,10 @@
     <t>Tashkin [SHINE study]</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>SD</t>
   </si>
   <si>
     <t>SE</t>
@@ -200,12 +194,18 @@
   <si>
     <t>Code</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Study level"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +404,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,7 +438,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,14 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -635,7 +633,7 @@
     <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -646,29 +644,29 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -694,7 +692,10 @@
         <v>0.71649168406432595</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -711,13 +712,16 @@
         <v>0.67349859102501197</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="D4" s="1">
         <v>11</v>
       </c>
@@ -741,7 +745,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
         <v>14</v>
       </c>
@@ -765,7 +772,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1">
         <v>15</v>
       </c>
@@ -789,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -822,7 +832,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
@@ -846,7 +859,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
       <c r="D9" s="1">
         <v>13</v>
       </c>
@@ -870,7 +886,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
       <c r="D10" s="1">
         <v>16</v>
       </c>
@@ -894,7 +913,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
       <c r="D11" s="1">
         <v>17</v>
       </c>
@@ -918,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -951,7 +973,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
@@ -975,7 +1000,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
       <c r="D14" s="1">
         <v>13</v>
       </c>
@@ -999,7 +1027,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
       <c r="D15" s="1">
         <v>16</v>
       </c>
@@ -1023,7 +1054,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
       <c r="D16" s="1">
         <v>17</v>
       </c>
@@ -1047,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1080,7 +1114,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -1104,7 +1141,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
       <c r="D19" s="1">
         <v>11</v>
       </c>
@@ -1128,7 +1168,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
       <c r="D20" s="1">
         <v>15</v>
       </c>
@@ -1152,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1185,7 +1228,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
@@ -1203,7 +1249,10 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
       <c r="D23" s="1">
         <v>14</v>
       </c>
@@ -1220,7 +1269,10 @@
         <v>0.61639214081221105</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
       <c r="D24" s="1">
         <v>15</v>
       </c>
@@ -1237,7 +1289,7 @@
         <v>0.60739371539889397</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -1263,7 +1315,10 @@
         <v>0.91520863064485902</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
@@ -1280,7 +1335,10 @@
         <v>0.64101596509388203</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
       <c r="D27" s="1">
         <v>7</v>
       </c>
@@ -1297,7 +1355,10 @@
         <v>0.63702205727060601</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
       <c r="D28" s="1">
         <v>10</v>
       </c>
@@ -1314,7 +1375,7 @@
         <v>0.64236405483757297</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -1340,7 +1401,10 @@
         <v>0.78384951533819602</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
       <c r="D30" s="1">
         <v>3</v>
       </c>
@@ -1357,7 +1421,10 @@
         <v>0.73786478737262196</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
@@ -1374,7 +1441,10 @@
         <v>0.75264466279865805</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
@@ -1391,7 +1461,7 @@
         <v>0.74095857363494799</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1417,7 +1487,10 @@
         <v>0.90014191906196395</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
@@ -1434,7 +1507,10 @@
         <v>0.87903869658868505</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
@@ -1451,7 +1527,7 @@
         <v>0.90121683341020498</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -1477,7 +1553,10 @@
         <v>0.4965</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
       <c r="D37" s="1">
         <v>5</v>
       </c>
@@ -1494,7 +1573,10 @@
         <v>0.49392257102995402</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
       <c r="D38" s="1">
         <v>7</v>
       </c>
@@ -1511,7 +1593,7 @@
         <v>0.49576214004549402</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1537,7 +1619,10 @@
         <v>0.85359506518956896</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
       <c r="D40" s="1">
         <v>7</v>
       </c>
@@ -1554,7 +1639,10 @@
         <v>0.85518611049413695</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
@@ -1571,7 +1659,7 @@
         <v>0.60869565217391297</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1597,7 +1685,10 @@
         <v>0.84731854573632304</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>11</v>
+      </c>
       <c r="D43" s="1">
         <v>8</v>
       </c>
@@ -1614,7 +1705,10 @@
         <v>0.84117847537655399</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
       <c r="D44" s="1">
         <v>9</v>
       </c>
@@ -1631,7 +1725,7 @@
         <v>0.85359506518956896</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -1657,7 +1751,10 @@
         <v>0.95038192662298304</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
       <c r="D46" s="1">
         <v>2</v>
       </c>
@@ -1674,7 +1771,7 @@
         <v>0.95479207525866305</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>13</v>
       </c>
@@ -1700,7 +1797,10 @@
         <v>3.39549875050866</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
@@ -1717,7 +1817,7 @@
         <v>3.39549875050866</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -1743,7 +1843,10 @@
         <v>0.69056907313378602</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>14</v>
+      </c>
       <c r="D50" s="1">
         <v>6</v>
       </c>
@@ -1760,7 +1863,7 @@
         <v>0.68394475624444395</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -1786,7 +1889,10 @@
         <v>0.31289310938737203</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>15</v>
+      </c>
       <c r="D52" s="1">
         <v>6</v>
       </c>
@@ -1803,7 +1909,7 @@
         <v>0.31391397053161202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -1829,7 +1935,10 @@
         <v>0.70998365535730801</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>16</v>
+      </c>
       <c r="D54" s="1">
         <v>7</v>
       </c>
@@ -1846,7 +1955,7 @@
         <v>0.56185345451267499</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>17</v>
       </c>
@@ -1872,7 +1981,10 @@
         <v>0.80163766803941605</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>17</v>
+      </c>
       <c r="D56" s="1">
         <v>7</v>
       </c>
@@ -1889,7 +2001,7 @@
         <v>0.56777497395766896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>18</v>
       </c>
@@ -1915,7 +2027,10 @@
         <v>0.90565864101261495</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>18</v>
+      </c>
       <c r="D58" s="1">
         <v>7</v>
       </c>
@@ -1932,7 +2047,7 @@
         <v>0.90566228022920303</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>19</v>
       </c>
@@ -1958,7 +2073,10 @@
         <v>0.86824314212445897</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>19</v>
+      </c>
       <c r="D60" s="1">
         <v>10</v>
       </c>
@@ -1975,7 +2093,7 @@
         <v>0.60583925137108197</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -2001,7 +2119,10 @@
         <v>0.61865154144294299</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>20</v>
+      </c>
       <c r="D62" s="1">
         <v>12</v>
       </c>
@@ -2018,7 +2139,7 @@
         <v>0.61180149989095101</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>21</v>
       </c>
@@ -2044,7 +2165,10 @@
         <v>1.1832159566199201</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>21</v>
+      </c>
       <c r="D64" s="1">
         <v>18</v>
       </c>
@@ -2061,7 +2185,7 @@
         <v>0.83666002653407601</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>22</v>
       </c>
@@ -2087,7 +2211,10 @@
         <v>0.62999874835774905</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>22</v>
+      </c>
       <c r="D66" s="1">
         <v>18</v>
       </c>
@@ -2104,7 +2231,7 @@
         <v>0.63999329750351397</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>23</v>
       </c>
@@ -2130,7 +2257,10 @@
         <v>0.51569662807863004</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>23</v>
+      </c>
       <c r="D68" s="1">
         <v>10</v>
       </c>
@@ -2147,7 +2277,7 @@
         <v>0.51499832494439701</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>24</v>
       </c>
@@ -2173,7 +2303,10 @@
         <v>0.58691053141044602</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>24</v>
+      </c>
       <c r="D70" s="1">
         <v>18</v>
       </c>
@@ -2190,7 +2323,7 @@
         <v>0.58898442667633999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>25</v>
       </c>
@@ -2216,7 +2349,10 @@
         <v>1.1355499479153399</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>25</v>
+      </c>
       <c r="D72" s="1">
         <v>14</v>
       </c>
